--- a/evaluation/results/one_svm/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_3/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2327267347240716</v>
       </c>
       <c r="H2">
-        <v>0.5692883895131087</v>
+        <v>0.7879827182314242</v>
       </c>
       <c r="I2">
         <v>121</v>

--- a/evaluation/results/one_svm/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5692883895131086</v>
+        <v>0.6704119850187266</v>
       </c>
       <c r="C2">
-        <v>0.7202380952380952</v>
+        <v>0.6117936117936118</v>
       </c>
       <c r="D2">
-        <v>0.2265917602996255</v>
+        <v>0.9325842696629213</v>
       </c>
       <c r="E2">
-        <v>0.3447293447293447</v>
+        <v>0.7388724035608308</v>
       </c>
       <c r="F2">
-        <v>0.2625868055555556</v>
+        <v>0.8440677966101695</v>
       </c>
       <c r="G2">
-        <v>0.2327267347240716</v>
+        <v>0.9141485456085852</v>
       </c>
       <c r="H2">
-        <v>0.7879827182314242</v>
+        <v>0.7866360869138297</v>
       </c>
       <c r="I2">
-        <v>121</v>
+        <v>498</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="K2">
-        <v>487</v>
+        <v>218</v>
       </c>
       <c r="L2">
-        <v>413</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5411111111111111</v>
+        <v>0.8582677165354331</v>
       </c>
       <c r="C2">
-        <v>0.9119850187265918</v>
+        <v>0.4082397003745318</v>
       </c>
       <c r="D2">
-        <v>0.6792189679218968</v>
+        <v>0.5532994923857868</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.7202380952380952</v>
+        <v>0.6117936117936118</v>
       </c>
       <c r="C3">
-        <v>0.2265917602996255</v>
+        <v>0.9325842696629213</v>
       </c>
       <c r="D3">
-        <v>0.3447293447293447</v>
+        <v>0.7388724035608308</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5692883895131086</v>
+        <v>0.6704119850187266</v>
       </c>
       <c r="C4">
-        <v>0.5692883895131086</v>
+        <v>0.6704119850187266</v>
       </c>
       <c r="D4">
-        <v>0.5692883895131086</v>
+        <v>0.6704119850187266</v>
       </c>
       <c r="E4">
-        <v>0.5692883895131086</v>
+        <v>0.6704119850187266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6306746031746031</v>
+        <v>0.7350306641645225</v>
       </c>
       <c r="C5">
-        <v>0.5692883895131087</v>
+        <v>0.6704119850187266</v>
       </c>
       <c r="D5">
-        <v>0.5119741563256208</v>
+        <v>0.6460859479733088</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.6306746031746031</v>
+        <v>0.7350306641645225</v>
       </c>
       <c r="C6">
-        <v>0.5692883895131086</v>
+        <v>0.6704119850187266</v>
       </c>
       <c r="D6">
-        <v>0.5119741563256208</v>
+        <v>0.6460859479733089</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>487</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>413</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
